--- a/ResultadoEleicoesDistritos/LEIRIA_BATALHA.xlsx
+++ b/ResultadoEleicoesDistritos/LEIRIA_BATALHA.xlsx
@@ -597,61 +597,61 @@
         <v>4173</v>
       </c>
       <c r="H2" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I2" t="n">
-        <v>387</v>
+        <v>409</v>
       </c>
       <c r="J2" t="n">
-        <v>1730</v>
+        <v>1691</v>
       </c>
       <c r="K2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L2" t="n">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="M2" t="n">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="N2" t="n">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="S2" t="n">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="T2" t="n">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="U2" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="V2" t="n">
-        <v>2719</v>
+        <v>2725</v>
       </c>
       <c r="W2" t="n">
         <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>2631</v>
+        <v>2642</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z2" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AA2" t="n">
         <v>19</v>
